--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\jy_cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjlin\Documents\BJL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B577E-E09E-4442-A5CB-3A715F0644B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526CAF88-B033-40E5-987E-7EDC09E26D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="2440" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="18225" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>what</t>
   </si>
@@ -37,250 +37,10 @@
     <t>why</t>
   </si>
   <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>College of Education Technology Committee</t>
-  </si>
-  <si>
-    <t>Reviewer</t>
-  </si>
-  <si>
-    <t>Nashville, TN</t>
-  </si>
-  <si>
-    <t>Bloomington, IN</t>
-  </si>
-  <si>
-    <r>
-      <t>Madison</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <color rgb="FF545454"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="4"/>
-        <color rgb="FF6A6A6A"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>WI</t>
-    </r>
-  </si>
-  <si>
-    <t>Funding Reviewer</t>
-  </si>
-  <si>
-    <t>Libraries' Accessibility Student Advisory Group</t>
-  </si>
-  <si>
-    <t>The 14th International Conference of the Learning Sciences (ICLS)</t>
-  </si>
-  <si>
-    <t>The 3rd Learning Sciences Graduate Student Conference (LSGSC)</t>
-  </si>
-  <si>
-    <t>Center for Online Innovation in Learning (COIL), The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>The 2nd Learning Sciences Graduate Student Conference (LSGSC)</t>
-  </si>
-  <si>
-    <t>The 1st International Conference on Quantitative Ethnography (ICQE)</t>
-  </si>
-  <si>
-    <t>Aug. 2019 - May. 2020</t>
-  </si>
-  <si>
-    <t>2019, 2020</t>
-  </si>
-  <si>
-    <t>The ACM CHI Conference on Human Factors in Computing Systems (CHI 2020, 2021)</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>etwork of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cademic </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rograms in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>earning </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ciences </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14.3"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13.2"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NAPLeS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14.3"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>International Society of the Learning Sciences</t>
-  </si>
-  <si>
-    <t>Reviewed abstracts on equity and disability.</t>
-  </si>
-  <si>
-    <t>Honolulu, HI, Yokohama, Japan</t>
-  </si>
-  <si>
-    <t>Worked as a student committee member to support understanding of educational technology for College of Education.</t>
-  </si>
-  <si>
-    <t>Oct. 2021 - Jul. 2022</t>
-  </si>
-  <si>
-    <t>Accessibility Chair</t>
-  </si>
-  <si>
-    <t>15th International Conference on Educational Data Mining</t>
-  </si>
-  <si>
-    <t>Durham</t>
-  </si>
-  <si>
-    <t>Diversity Committee</t>
-  </si>
-  <si>
-    <t>Sep. 2021 - Apr. 2022</t>
-  </si>
-  <si>
     <t>Champaign, IL</t>
   </si>
   <si>
     <t>School of Information Sciences at the University of Illinois at Urbana-Champaign</t>
-  </si>
-  <si>
-    <t>Sep. 2021</t>
-  </si>
-  <si>
-    <t>Journal Reviewer</t>
-  </si>
-  <si>
-    <t>TechTrends</t>
-  </si>
-  <si>
-    <t>Special issue on ethnography and learning design</t>
   </si>
   <si>
     <t>Search Committee for Director/Assistant Dean, Diversity, Equity, Inclusion, and Accessibility (DEIA)</t>
@@ -288,24 +48,12 @@
   <si>
     <t>April 2022 - Present</t>
   </si>
-  <si>
-    <t>Program Committee Member</t>
-  </si>
-  <si>
-    <t>Dec. 2021 - Feb. 2022</t>
-  </si>
-  <si>
-    <t>International Web for All Conference (W4A) 2022</t>
-  </si>
-  <si>
-    <t>Virtual</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,32 +207,7 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="4"/>
-      <color rgb="FF545454"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <sz val="16.5"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16.5"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14.3"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.2"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -836,7 +559,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1195,13 +918,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A3:E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="67.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,207 +946,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="301" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2019</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>2019</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>2018</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:5" ht="20.65" x14ac:dyDescent="0.45">
+      <c r="C7" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>2017</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D12" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>2016</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
